--- a/biology/Histoire de la zoologie et de la botanique/Lewis_Henry_Morgan/Lewis_Henry_Morgan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lewis_Henry_Morgan/Lewis_Henry_Morgan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lewis Henry Morgan, né le 21 novembre 1818 à Aurora, aux États-Unis et mort le 17 décembre 1881 à Rochester, est un anthropologue américain. Il est le premier à mettre en place une étude des systèmes de la parenté, qui est un domaine élémentaire de l'anthropologie sociale et culturelle contemporaine. Il vit parmi les Indiens iroquois et observe leur vie sociale et culturelle, faisant de sa propre expérience le matériau brut de sa réflexion.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1818 dans l’État de New-York. Après des études d’avocat, il devient d'abord conseiller juridique d’une compagnie de chemin de fer.
 L.H. Morgan se reconvertit ensuite à la politique. Membre du Parti républicain, il est élu député puis sénateur.
@@ -548,7 +562,9 @@
           <t>L'évolutionnisme de L.H. Morgan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans sa théorie, Morgan distingue trois stades principaux dans l'évolution de toute société humaine :
 l'état sauvage, qui se subdivise en :
@@ -593,13 +609,15 @@
           <t>Travaux sur les systèmes de parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Morgan accorda pour la première fois de l'importance aux études des relations de parenté pour une compréhension d'un système social complexe. Il montra la logique interne de ces rapports, et avança qu'ils constituaient les fondements des sociétés primitives, et par extension la source de l'histoire de l’humanité. Délaissant ses travaux sur les Indiens des plaines, à la fin des années 1850, Lewis H. Morgan se consacra quasi exclusivement aux études sur la parenté. Il entreprit une enquête à l'échelle planétaire dans l'espoir d'une analyse comparative. Le contexte de la colonisation lui permit d'envoyer des questionnaires dans le monde entier : administrations coloniales, consulats et ambassades américaines, scientifiques, missionnaires. Il ne récolta pas autant de données qu'il aurait souhaité, seules quelques régions du globe avaient répondu à son appel. Ce fut très positif par exemple pour l'Europe et l'Asie, mais très peu concluant pour des régions comme l'Afrique en général, l'Amérique centrale et latine, ainsi que pour la Polynésie.
 Il jugea cependant ces données suffisantes, et en s'appuyant sur les systèmes indiens bien connus de lui, il distingua l'existence de deux terminologies possibles sur la surface du globe :
 le type descriptif. Dans ce type de terminologie, c'est le degré d'éloignement (ou de proximité) avec un parent qui est jugé important. On différencie donc clairement les parents en ligne directe des parents en lignes collatérales. Ici une suite de termes simples de relation (exemple en français : père, mère, fils, fille...) suffisent par combinaison à décrire n'importe quelle relation avec un parent. C'est finalement le système européen, considéré pour Morgan comme celui de la "civilisation".
 le type classificatoire. Dans ce type de terminologie, c'est la sorte de relation avec un ou plusieurs parent qui prime. On peut donc classer certains des collatéraux, ou tous, dans les mêmes catégories que les parents en ligne directe. C'est le cas dans de nombreuses sociétés sous diverses formes où par exemple on emploie le même terme pour désigner son géniteur et son oncle paternel (type crow ou omaha par exemple). Dans ce type Morgan sous entend qu'il y aurait confusion chez ces "sociétés primitives" dans les relations entre les parents.
-On voit ici que (quels que soient les défauts possibles de cette théorie), Morgan distingue les sociétés les unes des autres à partir de leur propre structuration de parenté. Il est ainsi le fondateur d'un nouveau domaine scientifique qui est aujourd'hui considéré comme le champ classique de l'anthropologie sociale : l'étude de la parenté [1].
+On voit ici que (quels que soient les défauts possibles de cette théorie), Morgan distingue les sociétés les unes des autres à partir de leur propre structuration de parenté. Il est ainsi le fondateur d'un nouveau domaine scientifique qui est aujourd'hui considéré comme le champ classique de l'anthropologie sociale : l'étude de la parenté .
 Il ajoutera ensuite l'hypothèse selon laquelle les sociétés primitives ont un mode d'organisation sociale fondé sur la parenté, à la différence des sociétés civilisées qui elles fonctionnent sur une base politique. Cependant, encore une fois, Morgan a le premier clairement posé une question essentielle, à savoir celle de la naissance du politique et de l'État. Cette question est ensuite reprise par Evans-Pritchard dans son ouvrage Les Nuer. On considère ainsi Lewis Henri Morgan comme étant un des pionniers de l'anthropologie politique.
 </t>
         </is>
@@ -629,9 +647,11 @@
           <t>Travaux en éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre de Morgan sur le castor du Canada, The American Beaver and His Works (1868, Philadelphie)[2], est un ouvrage qui a été une référence et qui est souvent cité comme point de départ de l'éthologie aux États-Unis[3]. Il est basé sur des années d'observations personnelles, complétés de témoignages d'Indiens, de coureurs des bois et de trappeurs (citant les auteurs de chaque témoignage important), et de photos faites par des photographes professionnels à la demande de Morgan. Ce dernier — lorsqu'il a vécu chez les Indiens — a rapidement été fasciné par cette espèce ingénieur et les relations complexes et parfois proches que les Amérindiens entretenaient avec lui (en particulier, comme il le raconte dans son journal Indien, quand il rencontre à Fort Union une Amérindienne qui allaitait un castor d'environ six semaines)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre de Morgan sur le castor du Canada, The American Beaver and His Works (1868, Philadelphie), est un ouvrage qui a été une référence et qui est souvent cité comme point de départ de l'éthologie aux États-Unis. Il est basé sur des années d'observations personnelles, complétés de témoignages d'Indiens, de coureurs des bois et de trappeurs (citant les auteurs de chaque témoignage important), et de photos faites par des photographes professionnels à la demande de Morgan. Ce dernier — lorsqu'il a vécu chez les Indiens — a rapidement été fasciné par cette espèce ingénieur et les relations complexes et parfois proches que les Amérindiens entretenaient avec lui (en particulier, comme il le raconte dans son journal Indien, quand il rencontre à Fort Union une Amérindienne qui allaitait un castor d'environ six semaines).
 </t>
         </is>
       </c>
@@ -660,7 +680,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>League of the Ho-dé-no-sau-nee or Iroquois, Rochester, 1851.
 Systems of Consanguinity and Affinity of the Human Family, Washington, 1871.
